--- a/data/trans_bre/P17G_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.4971083986782094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3475601052133964</v>
+        <v>0.3475601052133965</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1778205033617069</v>
@@ -649,7 +649,7 @@
         <v>0.7025987685966022</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9682885347716064</v>
+        <v>0.9682885347716066</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6179337506442297</v>
+        <v>-0.5826783486294171</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7401191325675888</v>
+        <v>-0.6446893628086197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4657421850434904</v>
+        <v>-0.3953913489770653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2711914084306871</v>
+        <v>-0.3027625392323658</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6350179504110763</v>
+        <v>-0.6439467420965295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6210792965333508</v>
+        <v>-0.6033653633395433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5281991532700568</v>
+        <v>-0.4297493895412513</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5840681360270655</v>
+        <v>-0.5717381464510917</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7175295515041091</v>
+        <v>0.8182687748171602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8386424348223691</v>
+        <v>0.7429470333901197</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.523413537002565</v>
+        <v>1.503303544144598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9664151829115617</v>
+        <v>1.001935295680268</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.044976102352421</v>
+        <v>2.951884308071518</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.338267309840301</v>
+        <v>2.564915927246965</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7.704137868525543</v>
+        <v>5.09625647054979</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8.928853641153125</v>
+        <v>13.49628785598416</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.101989471286339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2661064749366011</v>
+        <v>0.2661064749366013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2956893667585205</v>
@@ -749,7 +749,7 @@
         <v>-0.06271293007708523</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.180571596066936</v>
+        <v>0.1805715960669362</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4476870489078448</v>
+        <v>-0.417046090032896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.196023918648148</v>
+        <v>-1.181313076565252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9554804917578881</v>
+        <v>-0.9457257165455073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4842035447793513</v>
+        <v>-0.5880228107772798</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2935359287965302</v>
+        <v>-0.2804110421690179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7088368336322063</v>
+        <v>-0.7270276507486825</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4704830641334434</v>
+        <v>-0.4587697441599187</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2702726745811027</v>
+        <v>-0.3004382113164077</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.265521803559263</v>
+        <v>1.228190890344403</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1904578471351419</v>
+        <v>0.2019501234129326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7816384218613872</v>
+        <v>0.6944223522418302</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.043704005668837</v>
+        <v>0.9650009724663079</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.601820780494012</v>
+        <v>1.417010705952172</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3455766947687569</v>
+        <v>0.2424640582495258</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6778141938724813</v>
+        <v>0.5465408141357901</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.021862024948859</v>
+        <v>0.9069155279066409</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1319958553599704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.506880050426866</v>
+        <v>1.506880050426868</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2060094916523326</v>
@@ -849,7 +849,7 @@
         <v>0.03196714415328673</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3683363805489415</v>
+        <v>0.3683363805489419</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.674163138173647</v>
+        <v>-1.815719535040973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.728049729073148</v>
+        <v>-0.8209277514739426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.417065132322469</v>
+        <v>-2.49255385365612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6170948300697598</v>
+        <v>-0.8348822862156466</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4140963753652276</v>
+        <v>-0.4177023180946844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2342412359457478</v>
+        <v>-0.2911632498470268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4533788096029084</v>
+        <v>-0.4891775353002801</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1359451227418979</v>
+        <v>-0.1613112789723881</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.24257111450045</v>
+        <v>3.510167366051971</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.339211287522539</v>
+        <v>4.541795820085955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.813496548737083</v>
+        <v>2.592501184451431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.638240008338147</v>
+        <v>3.59046696688807</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.319805979251724</v>
+        <v>1.551656569481544</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.647095545720197</v>
+        <v>3.015937491886413</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.02572738358724</v>
+        <v>0.8858554877416812</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.244437085374662</v>
+        <v>1.252161777989577</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4646357294095455</v>
+        <v>-0.3848203739732481</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6850890497058257</v>
+        <v>-0.6290479889106559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6725592304874305</v>
+        <v>-0.6857940885959585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1979510142937116</v>
+        <v>-0.237553034230417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2713260475983441</v>
+        <v>-0.2252154699396737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4183039933851784</v>
+        <v>-0.4233662173161853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3052417018735821</v>
+        <v>-0.3242650168940032</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08473465546469218</v>
+        <v>-0.111973951096075</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8431822729316172</v>
+        <v>0.8500888539953249</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4701395807210076</v>
+        <v>0.5606716905179084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7037634305562845</v>
+        <v>0.6451345982068224</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.116112354210033</v>
+        <v>1.037741663007586</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7403889762558946</v>
+        <v>0.7741163243168638</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4680011140721614</v>
+        <v>0.5621610106956121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4710217565829691</v>
+        <v>0.4323396391308039</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7652785255869352</v>
+        <v>0.6946138501625482</v>
       </c>
     </row>
     <row r="16">
